--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value639.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value639.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.23187700682236</v>
+        <v>1.189712882041931</v>
       </c>
       <c r="B1">
-        <v>2.303782347868711</v>
+        <v>2.365930080413818</v>
       </c>
       <c r="C1">
-        <v>3.260949354933913</v>
+        <v>4.284689903259277</v>
       </c>
       <c r="D1">
-        <v>3.54710528628343</v>
+        <v>2.889295101165771</v>
       </c>
       <c r="E1">
-        <v>1.108380757899582</v>
+        <v>1.125526905059814</v>
       </c>
     </row>
   </sheetData>
